--- a/inputs/Django 管理サイトアンケート（回答）.xlsx
+++ b/inputs/Django 管理サイトアンケート（回答）.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="76">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -221,6 +221,24 @@
   </si>
   <si>
     <t>ある程度以上のカスタマイズになると難易度が上がる, テストやデバッグがしづらい, コードが断片化しやすい（保守が大変になりがち）, 画面のスタイルを変えるのが大変, 不整合データを登録可能。</t>
+  </si>
+  <si>
+    <t>いろいろなユースケースで使える（多用途）</t>
+  </si>
+  <si>
+    <t>システム利用ユーザーの情報管理, 本番マスタデータのメンテナンス, サービス運用中の調査</t>
+  </si>
+  <si>
+    <t>ほんの数行書くだけでモデルのCRUD機能が追加できる, カスタマイズしやすい（フックポイントが多数用意されている）, 一覧の調整が容易</t>
+  </si>
+  <si>
+    <t>開発中のテストデータ投入, 本番マスタデータのメンテナンス, Q3にあるようなCRUD処理や、Wokerみたいな実行系のコンポーネントのログ管理（URLでGETリクエスト投げれるので便利）</t>
+  </si>
+  <si>
+    <t>設定不要ですぐに使える, ほんの数行書くだけでモデルのCRUD機能が追加できる, CRUD処理に１番のメリットを感じます</t>
+  </si>
+  <si>
+    <t>あきよこさんと会話するまで、カスタマイズができる事を知らなかった。</t>
   </si>
 </sst>
 </file>
@@ -1675,6 +1693,100 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>44051.95944104167</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>44051.96506040509</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>44051.96583178241</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>44051.98141491898</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>44052.03342015046</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/inputs/Django 管理サイトアンケート（回答）.xlsx
+++ b/inputs/Django 管理サイトアンケート（回答）.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="82">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -239,6 +239,24 @@
   </si>
   <si>
     <t>あきよこさんと会話するまで、カスタマイズができる事を知らなかった。</t>
+  </si>
+  <si>
+    <t>仕様を把握するのにひと苦労, 簡単にカスタマイズできるかどうかのジャッジにノウハウや調査が必要, ある程度以上のカスタマイズになると難易度が上がる, 日本語の情報が少ない</t>
+  </si>
+  <si>
+    <t>テストやデバッグがしづらい, 画面のスタイルを変えるのが大変, 日本語の情報が少ない</t>
+  </si>
+  <si>
+    <t>簡単にカスタマイズできるかどうかのジャッジにノウハウや調査が必要, ある程度以上のカスタマイズになると難易度が上がる, テストやデバッグがしづらい, コードが断片化しやすい（保守が大変になりがち）, 画面のスタイルを変えるのが大変, CRUDでは表現出来ないビジネスロジックから生成されるデータを生成出来ず、分からない人がマスターデータをいじるとデータの不整合が生じやすい。また、導入が楽なのでそこらへんのデメリットを度外視して後々保守が大変になりやすい。</t>
+  </si>
+  <si>
+    <t>設定不要ですぐに使える, ほんの数行書くだけでモデルのCRUD機能が追加できる, カスタマイズしやすい（フックポイントが多数用意されている）</t>
+  </si>
+  <si>
+    <t>仕様を把握するのにひと苦労, ある程度以上のカスタマイズになると難易度が上がる, 画面のスタイルを変えるのが大変</t>
+  </si>
+  <si>
+    <t>仕様を把握するのにひと苦労, 簡単にカスタマイズできるかどうかのジャッジにノウハウや調査が必要, ある程度以上のカスタマイズになると難易度が上がる, テストやデバッグがしづらい, コードが断片化しやすい（保守が大変になりがち）</t>
   </si>
 </sst>
 </file>
@@ -1787,6 +1805,200 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>44052.323273472226</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>44052.47354335648</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>44052.49669486111</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>44052.51373980324</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>44052.53783489583</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>44052.72101774305</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>44052.89433630787</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>44052.91235010416</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>44052.914862986116</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>44052.95744935185</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/inputs/Django 管理サイトアンケート（回答）.xlsx
+++ b/inputs/Django 管理サイトアンケート（回答）.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="88">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -257,6 +257,24 @@
   </si>
   <si>
     <t>仕様を把握するのにひと苦労, 簡単にカスタマイズできるかどうかのジャッジにノウハウや調査が必要, ある程度以上のカスタマイズになると難易度が上がる, テストやデバッグがしづらい, コードが断片化しやすい（保守が大変になりがち）</t>
+  </si>
+  <si>
+    <t>仕様を把握するのにひと苦労, 簡単にカスタマイズできるかどうかのジャッジにノウハウや調査が必要, ある程度以上のカスタマイズになると難易度が上がる, テストやデバッグがしづらい, コードが断片化しやすい（保守が大変になりがち）, 画面のスタイルを変えるのが大変, 日本語の情報が少ない</t>
+  </si>
+  <si>
+    <t>開発中のテストデータ投入, デバッグ起動のため</t>
+  </si>
+  <si>
+    <t>コードが断片化しやすい（保守が大変になりがち）</t>
+  </si>
+  <si>
+    <t>簡単にカスタマイズできるかどうかのジャッジにノウハウや調査が必要, 画面のスタイルを変えるのが大変</t>
+  </si>
+  <si>
+    <t>ほんの数行書くだけでモデルのCRUD機能が追加できる, 開発が捗る</t>
+  </si>
+  <si>
+    <t>仕様を把握するのにひと苦労, テストやデバッグがしづらい</t>
   </si>
 </sst>
 </file>
@@ -1999,6 +2017,343 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>44053.427507245375</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>44053.50982420139</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>44053.55422532407</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>44053.555859872686</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>44053.57790265046</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>44053.587460358794</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>44053.73789851852</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>44053.817796979165</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>44053.826782696764</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F85" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>44053.83301361111</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>44053.938579953705</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>44053.9916447338</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>44054.42499483796</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>44054.433632615735</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>44054.43748309028</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F91" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>44054.515460243056</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>44054.77129542824</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
